--- a/omop-questionconceptid-script/SCD_JobPackage.xlsx
+++ b/omop-questionconceptid-script/SCD_JobPackage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2000000156</v>
+        <v>2000000154</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2000000157</v>
+        <v>2000000155</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2000000158</v>
+        <v>2000000156</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2000000159</v>
+        <v>2000000157</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2000000160</v>
+        <v>2000000158</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2000000161</v>
+        <v>2000000159</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2000000162</v>
+        <v>2000000160</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2000000163</v>
+        <v>2000000161</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2000000164</v>
+        <v>2000000162</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2000000170</v>
+        <v>2000000163</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2000000171</v>
+        <v>2000000164</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2000000172</v>
+        <v>2000000165</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5309,14 +5309,410 @@
         </is>
       </c>
       <c r="E149" t="n">
+        <v>2000000166</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Primary Treatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2000000167</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>First Sickle Cell Encounter</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>2000000167</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Diagnoses</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Primary Diagnoses</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2000000168</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Last Sickle Cell Encounter</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>2000000168</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Diagnoses</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Primary Diagnoses</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2000000169</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Adakveo</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2000000169</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>SCD Medication</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2000000170</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Oxbrtya</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>2000000170</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>SCD Medication</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2000000171</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Voxeletor</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>2000000171</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>SCD Medication</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2000000172</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Hydroxyurea</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>2000000172</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>SCD Medication</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
         <v>2000000173</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Treatment</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Endari</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>2000000173</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>SCD Medication</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2000000174</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Deferasirox</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2000000174</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>SCD Medication</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2000000175</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Date of most recent transfusion of blood product</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2000000175</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Transfusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2000000176</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>2000000176</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2000000177</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Primary Care Provider Name</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Common Registry</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>2000000177</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Demographics</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2000000178</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Sickle Cell Diagnosis</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2000000178</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Diagnoses</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Primary Diagnoses</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/omop-questionconceptid-script/SCD_JobPackage.xlsx
+++ b/omop-questionconceptid-script/SCD_JobPackage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5714,6 +5714,306 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2000000179</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Total Bilirubin</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2000000179</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Lab Results</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Hepatobiliary</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2000000180</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Direct Bilirubin</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>2000000180</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Lab Results</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Hepatobiliary</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2000000181</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Lactate dehydrogenase</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2000000181</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Lab Results</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Hepatobiliary</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2000000182</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Hemoglobin electrophoresis confirmation of disease.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Special Code</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Class 1</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2000000183</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Likely has disease but no confirmation.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Special Code</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Class 2</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2000000184</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Doubt of SCD but no confirmation of the negative assumption.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Special Code</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Class 3</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2000000185</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Hemoglobin electrophoresis confirmed sickle cell trait.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Special Code</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Class 9</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2000000186</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Does not have SCD=hbAA confirmed by electrophoresis.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Special Code</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Class 0</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2000000187</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Hemoglobin E Pct</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>2000000187</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Lab Results</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Hemoglobin Electropheresis</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2000000188</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Classification Level</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>2000000188</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>SCD Classification Level</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/omop-questionconceptid-script/SCD_JobPackage.xlsx
+++ b/omop-questionconceptid-script/SCD_JobPackage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Domain_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Question_Concept_Class</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Question_Concept_Code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Section</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
@@ -489,15 +494,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>2000000001</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -518,15 +528,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>2000000002</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -547,15 +562,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>2000000003</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -576,15 +596,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>2000000004</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -605,15 +630,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>2000000005</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -634,15 +664,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>2000000006</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -663,15 +698,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>2000000025</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -692,15 +732,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>2000000026</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -721,15 +766,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>2000000027</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Family History</t>
         </is>
@@ -754,15 +804,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>2000000028</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Family History</t>
         </is>
@@ -787,15 +842,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>2000000029</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -820,15 +880,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>2000000030</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -853,15 +918,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>2000000031</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -886,15 +956,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>2000000032</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -919,15 +994,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>2000000033</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -952,15 +1032,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>2000000034</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -985,15 +1070,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>2000000035</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -1018,15 +1108,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>2000000036</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -1051,15 +1146,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>2000000037</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -1084,15 +1184,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>2000000038</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -1117,15 +1222,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>2000000039</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -1150,15 +1260,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>2000000040</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -1183,15 +1298,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>2000000041</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -1216,15 +1336,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>2000000042</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -1249,15 +1374,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>2000000043</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -1282,15 +1412,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>2000000044</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Transplant</t>
         </is>
@@ -1315,15 +1450,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>2000000045</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Transplant</t>
         </is>
@@ -1348,15 +1488,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>2000000046</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Transplant</t>
         </is>
@@ -1381,15 +1526,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>2000000047</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1414,15 +1564,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>2000000048</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1447,15 +1602,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>2000000049</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1480,15 +1640,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>2000000050</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1513,15 +1678,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>2000000051</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1546,15 +1716,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>2000000052</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1579,15 +1754,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>2000000053</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1612,15 +1792,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>2000000054</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1645,15 +1830,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>2000000055</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1678,15 +1868,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>2000000056</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1711,15 +1906,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>2000000057</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -1744,15 +1944,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>2000000058</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1777,15 +1982,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>2000000059</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1810,15 +2020,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>2000000060</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1843,15 +2058,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>2000000061</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1876,15 +2096,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>2000000062</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1909,15 +2134,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>2000000063</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1942,15 +2172,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>2000000064</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -1975,15 +2210,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
         <v>2000000065</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -2008,15 +2248,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>2000000066</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -2041,15 +2286,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>2000000067</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2074,15 +2324,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>2000000068</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2107,15 +2362,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>2000000069</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2140,15 +2400,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>2000000070</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2173,15 +2438,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>2000000071</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2206,15 +2476,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>2000000072</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2239,15 +2514,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
         <v>2000000073</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2272,15 +2552,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
         <v>2000000074</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2305,15 +2590,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
         <v>2000000075</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2338,15 +2628,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>2000000076</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Blood Counts</t>
         </is>
@@ -2371,15 +2666,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>2000000077</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2404,15 +2704,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>2000000078</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2437,15 +2742,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>2000000079</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2470,15 +2780,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>2000000080</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2503,15 +2818,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
         <v>2000000081</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2536,15 +2856,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
         <v>2000000082</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2569,15 +2894,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>2000000083</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2602,15 +2932,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>2000000084</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2635,15 +2970,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>2000000085</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2668,15 +3008,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
         <v>2000000086</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2701,15 +3046,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>2000000087</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2734,15 +3084,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>2000000088</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Reticulocytes</t>
         </is>
@@ -2767,15 +3122,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
         <v>2000000089</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -2800,15 +3160,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
         <v>2000000090</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -2833,15 +3198,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>2000000091</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -2866,15 +3236,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>2000000092</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -2899,15 +3274,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
         <v>2000000093</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -2932,15 +3312,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
         <v>2000000094</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -2965,15 +3350,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>2000000095</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -2998,15 +3388,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>2000000096</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3031,15 +3426,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>2000000097</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3064,15 +3464,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
         <v>2000000098</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3097,15 +3502,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
         <v>2000000099</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3130,15 +3540,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>2000000100</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3163,15 +3578,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>2000000101</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3196,15 +3616,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>2000000102</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Renal</t>
         </is>
@@ -3229,15 +3654,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
         <v>2000000103</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -3262,15 +3692,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
         <v>2000000104</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3295,15 +3730,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>2000000105</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3328,15 +3768,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
         <v>2000000106</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3361,15 +3806,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
         <v>2000000107</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3394,15 +3844,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>2000000108</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3427,15 +3882,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>2000000109</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3460,15 +3920,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
         <v>2000000110</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3493,15 +3958,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
         <v>2000000111</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3526,15 +3996,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>2000000112</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>Anemia</t>
         </is>
@@ -3559,15 +4034,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
         <v>2000000113</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G96" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>Anemia</t>
         </is>
@@ -3592,15 +4072,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>2000000114</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>Anemia</t>
         </is>
@@ -3625,15 +4110,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>2000000115</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Anemia</t>
         </is>
@@ -3658,15 +4148,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>2000000116</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Anemia</t>
         </is>
@@ -3691,15 +4186,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>2000000117</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>Anemia</t>
         </is>
@@ -3724,15 +4224,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
         <v>2000000118</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3757,15 +4262,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>2000000119</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G102" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3790,15 +4300,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>2000000120</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -3823,15 +4338,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
         <v>2000000121</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -3856,15 +4376,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>2000000122</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -3889,15 +4414,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
         <v>2000000123</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -3922,15 +4452,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
         <v>2000000124</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -3955,15 +4490,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
         <v>2000000125</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Related Diagnoses</t>
         </is>
@@ -3988,15 +4528,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E109" t="n">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
         <v>2000000126</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G109" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4021,15 +4566,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
         <v>2000000127</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G110" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4054,15 +4604,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
         <v>2000000128</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4087,15 +4642,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
         <v>2000000129</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4120,15 +4680,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
         <v>2000000130</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G113" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4153,15 +4718,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
         <v>2000000131</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G114" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4186,15 +4756,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
         <v>2000000132</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G115" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4219,15 +4794,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>2000000133</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G116" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>Pulmonary</t>
         </is>
@@ -4252,15 +4832,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
         <v>2000000134</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G117" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>General</t>
         </is>
@@ -4285,15 +4870,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
         <v>2000000135</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G118" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>General</t>
         </is>
@@ -4318,15 +4908,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
         <v>2000000136</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G119" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4351,15 +4946,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E120" t="n">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
         <v>2000000137</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4384,15 +4984,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
         <v>2000000138</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G121" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4417,15 +5022,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
         <v>2000000139</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G122" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4450,15 +5060,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
         <v>2000000140</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G123" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4483,15 +5098,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
         <v>2000000141</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G124" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4516,15 +5136,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
         <v>2000000142</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G125" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4549,15 +5174,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
         <v>2000000143</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G126" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4582,15 +5212,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
         <v>2000000144</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G127" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4615,15 +5250,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E128" t="n">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
         <v>2000000145</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G128" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4648,15 +5288,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E129" t="n">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
         <v>2000000146</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G129" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
         <is>
           <t>Cardiovascular</t>
         </is>
@@ -4681,15 +5326,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
         <v>2000000147</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G130" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>General</t>
         </is>
@@ -4714,15 +5364,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
         <v>2000000148</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G131" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
         <is>
           <t>General</t>
         </is>
@@ -4747,15 +5402,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
         <v>2000000149</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G132" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>Neurological</t>
         </is>
@@ -4780,15 +5440,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
         <v>2000000150</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G133" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
         <is>
           <t>Neurological</t>
         </is>
@@ -4813,15 +5478,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E134" t="n">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
         <v>2000000151</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>Neurological</t>
         </is>
@@ -4846,15 +5516,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E135" t="n">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
         <v>2000000152</v>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G135" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>Neurological</t>
         </is>
@@ -4879,15 +5554,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
         <v>2000000153</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -4912,15 +5592,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E137" t="n">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
         <v>2000000154</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G137" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>Ophthalmological</t>
         </is>
@@ -4945,15 +5630,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E138" t="n">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
         <v>2000000155</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G138" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>Ophthalmological</t>
         </is>
@@ -4978,15 +5668,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
         <v>2000000156</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G139" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>Ophthalmological</t>
         </is>
@@ -5011,15 +5706,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E140" t="n">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
         <v>2000000157</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G140" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Ophthalmological</t>
         </is>
@@ -5044,15 +5744,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E141" t="n">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
         <v>2000000158</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G141" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Ophthalmological</t>
         </is>
@@ -5077,15 +5782,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E142" t="n">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
         <v>2000000159</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -5110,15 +5820,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E143" t="n">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
         <v>2000000160</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G143" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>Orthopedic</t>
         </is>
@@ -5143,15 +5858,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E144" t="n">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
         <v>2000000161</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G144" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Orthopedic</t>
         </is>
@@ -5176,15 +5896,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E145" t="n">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
         <v>2000000162</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G145" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>Dermatological</t>
         </is>
@@ -5209,15 +5934,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E146" t="n">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
         <v>2000000163</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G146" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>Dermatological</t>
         </is>
@@ -5242,15 +5972,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E147" t="n">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
         <v>2000000164</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G147" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>General</t>
         </is>
@@ -5275,15 +6010,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E148" t="n">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
         <v>2000000165</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G148" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>Urological</t>
         </is>
@@ -5308,15 +6048,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E149" t="n">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
         <v>2000000166</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Primary Treatment</t>
         </is>
@@ -5341,15 +6086,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E150" t="n">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
         <v>2000000167</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -5374,15 +6124,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E151" t="n">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
         <v>2000000168</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -5407,15 +6162,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E152" t="n">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
         <v>2000000169</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>SCD Medication</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5440,15 +6200,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E153" t="n">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
         <v>2000000170</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>SCD Medication</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5473,15 +6238,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
         <v>2000000171</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>SCD Medication</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5506,15 +6276,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
         <v>2000000172</v>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>SCD Medication</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5539,15 +6314,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
         <v>2000000173</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>SCD Medication</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5572,15 +6352,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
         <v>2000000174</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>SCD Medication</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5605,15 +6390,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
         <v>2000000175</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G158" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>Transfusion</t>
         </is>
@@ -5638,15 +6428,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E159" t="n">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
         <v>2000000176</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Other Medical History</t>
-        </is>
-      </c>
       <c r="G159" t="inlineStr">
+        <is>
+          <t>Other Medical History</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
         <is>
           <t>Medication</t>
         </is>
@@ -5671,15 +6466,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E160" t="n">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
         <v>2000000177</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5700,15 +6500,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
         <v>2000000178</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>Diagnoses</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Primary Diagnoses</t>
         </is>
@@ -5733,15 +6538,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E162" t="n">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
         <v>2000000179</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -5766,15 +6576,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
         <v>2000000180</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -5799,15 +6614,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E164" t="n">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
         <v>2000000181</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>Hepatobiliary</t>
         </is>
@@ -5829,16 +6649,21 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>Meas Value</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>Special Code</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>Class 1</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5856,16 +6681,21 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>Meas Value</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>Special Code</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>Class 2</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5883,16 +6713,21 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>Meas Value</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>Special Code</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>Class 3</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5910,16 +6745,21 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>Meas Value</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
           <t>Special Code</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>Class 9</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5937,16 +6777,21 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>Meas Value</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
           <t>Special Code</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>Class 0</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5967,15 +6812,20 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="E170" t="n">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
         <v>2000000187</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Lab Results</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>Hemoglobin Electropheresis</t>
         </is>
@@ -6000,15 +6850,20 @@
           <t>Measurement</t>
         </is>
       </c>
-      <c r="E171" t="n">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Measurement</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
         <v>2000000188</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>SCD Classification Level</t>
         </is>

--- a/omop-questionconceptid-script/SCD_JobPackage.xlsx
+++ b/omop-questionconceptid-script/SCD_JobPackage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6869,6 +6869,38 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2000000189</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Inconclusive confirmation of SCD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>SCD Registry</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Meas Value</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Special Code</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Class Unknown</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/omop-questionconceptid-script/SCD_JobPackage.xlsx
+++ b/omop-questionconceptid-script/SCD_JobPackage.xlsx
@@ -1,26 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc142/Documents/workspace/smart-pacer-registry/SMART-PACER-Registry-Database/omop-questionconceptid-script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mriley7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80745AA2-D2F2-3F4B-AFE9-76C97551C969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43800AAD-9475-4E17-B32A-362BEB3B8500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" activeTab="2" xr2:uid="{C93724E4-4D27-4620-9AB7-5A245C848E2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Question Concepts" sheetId="1" r:id="rId1"/>
+    <sheet name="JobPackage" sheetId="1" r:id="rId1"/>
+    <sheet name="Code Generation" sheetId="2" r:id="rId2"/>
+    <sheet name="Question Concepts" sheetId="3" r:id="rId3"/>
+    <sheet name="Cohorts" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="341">
+  <si>
+    <t>NAME:</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Registry</t>
+  </si>
+  <si>
+    <t>VERSION:</t>
+  </si>
+  <si>
+    <t>DESCRIPTION:</t>
+  </si>
+  <si>
+    <t>Package for Sickle Cell Disease Registry</t>
+  </si>
+  <si>
+    <t>Question Text</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>LinkID</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>CQL Library</t>
+  </si>
+  <si>
+    <t>CQL Definition</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>Item/Answer Type</t>
+  </si>
+  <si>
+    <t>AnswerOption (Choice Only)</t>
+  </si>
+  <si>
+    <t>Notes (Not Parsed)</t>
+  </si>
+  <si>
+    <t>Patient Last Name</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>CQL</t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Patient First Name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>Primary Care Provider Name</t>
+  </si>
+  <si>
+    <t>pcp_name</t>
+  </si>
+  <si>
+    <t>Sickle Cell Diagnosis</t>
+  </si>
+  <si>
+    <t>scd_diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>First Sickle Cell Encounter</t>
+  </si>
+  <si>
+    <t>first_sickle_cell_encounter</t>
+  </si>
+  <si>
+    <t>Last Sickle Cell Encounter</t>
+  </si>
+  <si>
+    <t>last_sickle_cell_encounter</t>
+  </si>
+  <si>
+    <t>Date of most recent transfusion</t>
+  </si>
+  <si>
+    <t>Patient Transfusion</t>
+  </si>
+  <si>
+    <t>patient_transfusion</t>
+  </si>
+  <si>
+    <t>date_transfusion</t>
+  </si>
+  <si>
+    <t>Hemoglobin A Pct</t>
+  </si>
+  <si>
+    <t>Hemoglobin Panel</t>
+  </si>
+  <si>
+    <t>hemoglobin_types</t>
+  </si>
+  <si>
+    <t>hgb_a</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1 Pct</t>
+  </si>
+  <si>
+    <t>hgb_a1</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1c Pct</t>
+  </si>
+  <si>
+    <t>hgb_a1c</t>
+  </si>
+  <si>
+    <t>Hemoglobin A2 Pct</t>
+  </si>
+  <si>
+    <t>hgb_a2</t>
+  </si>
+  <si>
+    <t>Hemoglobin C Pct</t>
+  </si>
+  <si>
+    <t>hgb_c</t>
+  </si>
+  <si>
+    <t>Hemoglobin D Pct</t>
+  </si>
+  <si>
+    <t>hgb_d</t>
+  </si>
+  <si>
+    <t>Hemoglobin F Pct</t>
+  </si>
+  <si>
+    <t>hgb_f</t>
+  </si>
+  <si>
+    <t>Hemoglobin S Pct</t>
+  </si>
+  <si>
+    <t>hgb_s</t>
+  </si>
+  <si>
+    <t>Hemoglobin Other Pct</t>
+  </si>
+  <si>
+    <t>hgb_other_structured</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Treatment</t>
+  </si>
+  <si>
+    <t>SCD Treatment</t>
+  </si>
+  <si>
+    <t>scd_treatment</t>
+  </si>
+  <si>
+    <t>NLPQL</t>
+  </si>
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
+    <t>Library Logic Definition</t>
+  </si>
+  <si>
+    <t>FHIR Resource</t>
+  </si>
+  <si>
+    <t>Code System</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>Codeset URL</t>
+  </si>
+  <si>
+    <t>Custom CQL Expression</t>
+  </si>
+  <si>
+    <t>CQL Tuple Type</t>
+  </si>
+  <si>
+    <t>NLP Task Type</t>
+  </si>
+  <si>
+    <t>Text Terms</t>
+  </si>
+  <si>
+    <t>Excluded Text Terms (for ProviderAssertion)</t>
+  </si>
+  <si>
+    <t>Minimum Value for ValueExtraction</t>
+  </si>
+  <si>
+    <t>Maximum Value for ValueExtraction</t>
+  </si>
+  <si>
+    <t>Enum Set List</t>
+  </si>
+  <si>
+    <t>NLPQL Tuple Type</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>ICD10</t>
+  </si>
+  <si>
+    <t>D57.0,D57.00,D57.01,D57.02, D57.2,D57.20,D57.21,D57.211,D57.212,D57.219, D57.4,D57.40,D57.411,D57.412,D57.419,D57.44,D57.45,D57.451,D57.453, D57.459,D57.458,D57.44,D57.452, D57.42,D57.43,D57.43,D57.431, D57.432,D57.433,D57.438,D57.439, D57.80,D57.81,D57.811,D57.812,D57,819,D56</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>EncounterTuple</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>SNOMED</t>
+  </si>
+  <si>
+    <t>116859006,54790000,54790000,36430,36440,39188002,1006667,36455,36450,36456,33389009,288170000,12719002,274501008,116863004,35108008</t>
+  </si>
+  <si>
+    <t>Z51.3</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>36430,36440,1006667,36455,36450,36456,86950</t>
+  </si>
+  <si>
+    <t>ProcedureTuple</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>LOINC</t>
+  </si>
+  <si>
+    <t>20572-4,42244-4</t>
+  </si>
+  <si>
+    <t>ObservationTuple</t>
+  </si>
+  <si>
+    <t>4547-6</t>
+  </si>
+  <si>
+    <t>17856-6</t>
+  </si>
+  <si>
+    <t>42244-4,42245-1</t>
+  </si>
+  <si>
+    <t>4563-3,44920-7</t>
+  </si>
+  <si>
+    <t>44921-5</t>
+  </si>
+  <si>
+    <t>465-5,42246-9</t>
+  </si>
+  <si>
+    <t>4625-0,44923-1</t>
+  </si>
+  <si>
+    <t>42248-5</t>
+  </si>
+  <si>
+    <t>Reticulocytes per 100 Erithrocytes</t>
+  </si>
+  <si>
+    <t>Other Labs</t>
+  </si>
+  <si>
+    <t>other_labs</t>
+  </si>
+  <si>
+    <t>reticulocyte_per_erithorocytes</t>
+  </si>
+  <si>
+    <t>17849-1</t>
+  </si>
+  <si>
+    <t>Reticulocyte Count</t>
+  </si>
+  <si>
+    <t>reticulocyte_absolute_count</t>
+  </si>
+  <si>
+    <t>14196-0</t>
+  </si>
+  <si>
+    <t>scd_treatment_ms</t>
+  </si>
+  <si>
+    <t>MedicationStatement</t>
+  </si>
+  <si>
+    <t>RxNorm</t>
+  </si>
+  <si>
+    <t>2262426,2262279,2262421,2265678, 2265684,5552,1928936,614373, 614084,1607785,2262426,2262279,2262421</t>
+  </si>
+  <si>
+    <t>MedicationStatementTuple</t>
+  </si>
+  <si>
+    <t>scd_treatment_mr</t>
+  </si>
+  <si>
+    <t>MedicationRequest</t>
+  </si>
+  <si>
+    <t>2262426,2262279,2262421,2265678, 2265684,5552,1928936,614373,614084,1607785</t>
+  </si>
+  <si>
+    <t>MedicationRequestTuple</t>
+  </si>
+  <si>
+    <t>"scd_treatment_ms" union "scd_treatment_mr"</t>
+  </si>
   <si>
     <t>Question_Concept_ID</t>
   </si>
@@ -52,9 +441,6 @@
     <t>Common Registry</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -64,15 +450,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>Mother's Maiden Last Name</t>
   </si>
   <si>
@@ -196,39 +573,12 @@
     <t>Date of most recent WBC transfusion</t>
   </si>
   <si>
-    <t>Hemoglobin A Pct</t>
-  </si>
-  <si>
     <t>Lab Results</t>
   </si>
   <si>
     <t>Hemoglobin Electropheresis</t>
   </si>
   <si>
-    <t>Hemoglobin A1 Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin A1c Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin A2 Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin C Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin D Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin F Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin S Pct</t>
-  </si>
-  <si>
-    <t>Hemoglobin Other Pct</t>
-  </si>
-  <si>
     <t>Neutrophil Count</t>
   </si>
   <si>
@@ -262,15 +612,9 @@
     <t>Platelet Mean Volume</t>
   </si>
   <si>
-    <t>Reticulocyte Count</t>
-  </si>
-  <si>
     <t>Reticulocytes</t>
   </si>
   <si>
-    <t>Reticulocytes per 100 Erithrocytes</t>
-  </si>
-  <si>
     <t>Reticulocyte Mean Volume</t>
   </si>
   <si>
@@ -562,21 +906,12 @@
     <t>Urological</t>
   </si>
   <si>
-    <t>Sickle Cell Disease Treatment</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
     <t>Primary Treatment</t>
   </si>
   <si>
-    <t>First Sickle Cell Encounter</t>
-  </si>
-  <si>
-    <t>Last Sickle Cell Encounter</t>
-  </si>
-  <si>
     <t>Adakveo</t>
   </si>
   <si>
@@ -601,12 +936,6 @@
     <t>Deferasirox</t>
   </si>
   <si>
-    <t>Primary Care Provider Name</t>
-  </si>
-  <si>
-    <t>Sickle Cell Diagnosis</t>
-  </si>
-  <si>
     <t>Total Bilirubin</t>
   </si>
   <si>
@@ -671,19 +1000,128 @@
   </si>
   <si>
     <t>Class Unknown</t>
+  </si>
+  <si>
+    <t>cohort_definition_id</t>
+  </si>
+  <si>
+    <t>cohort_definition_name</t>
+  </si>
+  <si>
+    <t>cohort_definition_description</t>
+  </si>
+  <si>
+    <t>definition_type_concept_id</t>
+  </si>
+  <si>
+    <t>subject_concept_id</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Class 1</t>
+  </si>
+  <si>
+    <t>hemoglobin electrophoresis confirmation of disease. Part of a multi-cohort definition for Sickle Cell Disease Classfication</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Class 2</t>
+  </si>
+  <si>
+    <t>likely has disease but no confirmation. Part of a multi-cohort definition for Sickle Cell Disease Classifcation</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Class 3</t>
+  </si>
+  <si>
+    <t>doubt of SCD but no confirmation of the negative assumption. Part of a multi-cohort definition for Sickle Cell Disease Classifcation</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Class 9</t>
+  </si>
+  <si>
+    <t>hemoglobin electrophoresis confirmed sickle cell trait. Part of a multi-cohort definition for Sickle Cell Disease Classifcation</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease Class 0</t>
+  </si>
+  <si>
+    <t>Does not have SCD=hbAA confirmed by electrophoresis. Part of a multi-cohort definition for Sickle Cell Disease Classifcation</t>
+  </si>
+  <si>
+    <t>Related Sickle Cell Diagnosis</t>
+  </si>
+  <si>
+    <t>related_sickle_cell_diagnosis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <b/>
@@ -691,19 +1129,62 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -727,17 +1208,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -750,114 +1318,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,160 +1379,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1034,4433 +1515,6562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H172"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="13.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.2">
+      <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2000000001</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="30"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2000000002</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2000000003</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2000000004</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.2">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2000000005</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.2">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2000000006</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="13.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2000000177</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>2000000178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.2">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2000000167</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="13.2">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2000000168</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2000000058</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2000000059</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2000000060</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2000000061</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2000000062</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2000000063</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2000000064</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2000000065</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2000000066</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2000000190</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter text that does not contain any spaces" sqref="F5:F26" xr:uid="{9AF6CBF0-29D5-4387-BDCC-F259E3A1A97B}">
+      <formula1>ISERROR(SEARCH((" "),(F5)))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5:D26" xr:uid="{F15EEFE0-96C9-4AD8-832C-2BCCD97657B1}">
+      <formula1>"ProviderAssertion,CQLExecutionTask,ValueExtraction,TermFinder,Logic,MeasurementFinder,ngram,TermProximityTask,TransfusionNursingNotesParser,EcogCriteriaTask,GleasonScoreTask,PregnancyTask,RaceFinderTask,TNMStager,PFTFinder"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="130.6640625" customWidth="1"/>
+    <col min="15" max="16" width="28.6640625" customWidth="1"/>
+    <col min="17" max="17" width="29.109375" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="39.6">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="26.4">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="13.2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2000000001</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2000000002</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2000000003</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.2">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2000000004</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.2">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2000000005</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.2">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2000000006</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2000000186</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="132">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2000000178</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.2">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2000000167</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.2">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2000000168</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="52.8">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.2">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="26.4">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="26.4">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2000000058</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" ht="26.4">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2000000059</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" ht="26.4">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2000000060</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" ht="26.4">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2000000061</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="26.4">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2000000062</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" ht="26.4">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2000000063</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" ht="26.4">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2000000064</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" ht="26.4">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2000000065</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" ht="26.4">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2000000066</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>2000000078</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" ht="13.2">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <v>2000000077</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" ht="13.2">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>2000000077</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="29">
+        <v>2000000175</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="D3:D9 D15:D1048576" xr:uid="{916D3C9F-EC07-4372-9A42-48885E9DB9E4}">
+      <formula1>"NLPQL,CQL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D10:D14" xr:uid="{44D362C4-29E3-5C41-A7FA-515C7EB43B2F}">
+      <formula1>"ProviderAssertion,CQLExecutionTask,ValueExtraction,TermFinder,Logic,MeasurementFinder,ngram,TermProximityTask,TransfusionNursingNotesParser,EcogCriteriaTask,GleasonScoreTask,PregnancyTask,RaceFinderTask,TNMStager,PFTFinder"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter text that does not contain any spaces" sqref="F3:F30" xr:uid="{ABBB7927-C79C-A44C-A8EE-7F1586FC43EC}">
+      <formula1>ISERROR(SEARCH((" "),(F3)))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="M3:M27" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"ProviderAssertion,ValueExtraction,TermFinder,Logic,MeasurementFinder,ngram,TermProximityTask,TransfusionNursingNotesParser,EcogCriteriaTask,GleasonScoreTask,PregnancyTask,RaceFinderTask,TNMStager,PFTFinder"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H3:H30" xr:uid="{443D39A1-3C72-4D08-B35B-41E9A33CD175}">
+      <formula1>"LOINC,SNOMED,RxNorm,CPT,ICD9,ICD10,USCoreEthnicitySystem,RelationshipType,ICD9Proc,ICD10CM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="G3:G30" xr:uid="{332ADF64-E31B-4892-9309-D4967BECD9CA}">
+      <formula1>"Condition,MedicationRequest,Organization,Device,Patient,DeviceUseStatement,Practitioner,StructureDefinition,Medication,Observation,Encounter,Procedure,MedicationStatement,ConceptMap,OperationDefinition,DocumentReference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B160" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2">
       <c r="A2">
         <v>2000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F2">
         <v>2000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2">
       <c r="A3">
         <v>2000000002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <v>2000000002</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2">
       <c r="A4">
         <v>2000000003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>2000000003</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2">
       <c r="A5">
         <v>2000000004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>2000000004</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.2">
       <c r="A6">
         <v>2000000005</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>2000000005</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.2">
       <c r="A7">
         <v>2000000006</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>2000000006</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.2">
       <c r="A8">
         <v>2000000025</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>2000000025</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.2">
       <c r="A9">
         <v>2000000026</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F9">
         <v>2000000026</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.2">
       <c r="A10">
         <v>2000000027</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>2000000027</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2">
       <c r="A11">
         <v>2000000028</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <v>2000000028</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.2">
       <c r="A12">
         <v>2000000029</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>2000000029</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.2">
       <c r="A13">
         <v>2000000030</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>2000000030</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.2">
       <c r="A14">
         <v>2000000031</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <v>2000000031</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.2">
       <c r="A15">
         <v>2000000032</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>2000000032</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.2">
       <c r="A16">
         <v>2000000033</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <v>2000000033</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
       <c r="A17">
         <v>2000000034</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <v>2000000034</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.2">
       <c r="A18">
         <v>2000000035</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>2000000035</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.2">
       <c r="A19">
         <v>2000000036</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <v>2000000036</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.2">
       <c r="A20">
         <v>2000000037</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>2000000037</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.2">
       <c r="A21">
         <v>2000000038</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F21">
         <v>2000000038</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.2">
       <c r="A22">
         <v>2000000039</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>2000000039</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23">
         <v>2000000040</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>2000000040</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.2">
       <c r="A24">
         <v>2000000041</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <v>2000000041</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.2">
       <c r="A25">
         <v>2000000042</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F25">
         <v>2000000042</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.2">
       <c r="A26">
         <v>2000000043</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <v>2000000043</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27">
         <v>2000000044</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <v>2000000044</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28">
         <v>2000000045</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <v>2000000045</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29">
         <v>2000000046</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <v>2000000046</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30">
         <v>2000000047</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F30">
         <v>2000000047</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31">
         <v>2000000048</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F31">
         <v>2000000048</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32">
         <v>2000000049</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <v>2000000049</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33">
         <v>2000000050</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>2000000050</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34">
         <v>2000000051</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>2000000051</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35">
         <v>2000000052</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <v>2000000052</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36">
         <v>2000000053</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F36">
         <v>2000000053</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37">
         <v>2000000054</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F37">
         <v>2000000054</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38">
         <v>2000000055</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F38">
         <v>2000000055</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39">
         <v>2000000056</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F39">
         <v>2000000056</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40">
         <v>2000000057</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F40">
         <v>2000000057</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41">
         <v>2000000058</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F41">
         <v>2000000058</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42">
         <v>2000000059</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>2000000059</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43">
         <v>2000000060</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F43">
         <v>2000000060</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44">
         <v>2000000061</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F44">
         <v>2000000061</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45">
         <v>2000000062</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F45">
         <v>2000000062</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46">
         <v>2000000063</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F46">
         <v>2000000063</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47">
         <v>2000000064</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F47">
         <v>2000000064</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48">
         <v>2000000065</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F48">
         <v>2000000065</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49">
         <v>2000000066</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F49">
         <v>2000000066</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50">
         <v>2000000067</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F50">
         <v>2000000067</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51">
         <v>2000000068</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F51">
         <v>2000000068</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52">
         <v>2000000069</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F52">
         <v>2000000069</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53">
         <v>2000000070</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F53">
         <v>2000000070</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54">
         <v>2000000071</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F54">
         <v>2000000071</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55">
         <v>2000000072</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F55">
         <v>2000000072</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56">
         <v>2000000073</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F56">
         <v>2000000073</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57">
         <v>2000000074</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F57">
         <v>2000000074</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58">
         <v>2000000075</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F58">
         <v>2000000075</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59">
         <v>2000000076</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F59">
         <v>2000000076</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60">
         <v>2000000077</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F60">
         <v>2000000077</v>
       </c>
       <c r="G60" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61">
         <v>2000000078</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F61">
         <v>2000000078</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62">
         <v>2000000079</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F62">
         <v>2000000079</v>
       </c>
       <c r="G62" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63">
         <v>2000000080</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F63">
         <v>2000000080</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64">
         <v>2000000081</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F64">
         <v>2000000081</v>
       </c>
       <c r="G64" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65">
         <v>2000000082</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F65">
         <v>2000000082</v>
       </c>
       <c r="G65" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66">
         <v>2000000083</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F66">
         <v>2000000083</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67">
         <v>2000000084</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F67">
         <v>2000000084</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68">
         <v>2000000085</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F68">
         <v>2000000085</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69">
         <v>2000000086</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F69">
         <v>2000000086</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70">
         <v>2000000087</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F70">
         <v>2000000087</v>
       </c>
       <c r="G70" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71">
         <v>2000000088</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F71">
         <v>2000000088</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72">
         <v>2000000089</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F72">
         <v>2000000089</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73">
         <v>2000000090</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F73">
         <v>2000000090</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74">
         <v>2000000091</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F74">
         <v>2000000091</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75">
         <v>2000000092</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F75">
         <v>2000000092</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76">
         <v>2000000093</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F76">
         <v>2000000093</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="A77">
         <v>2000000094</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F77">
         <v>2000000094</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78">
         <v>2000000095</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F78">
         <v>2000000095</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79">
         <v>2000000096</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F79">
         <v>2000000096</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80">
         <v>2000000097</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F80">
         <v>2000000097</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81">
         <v>2000000098</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F81">
         <v>2000000098</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82">
         <v>2000000099</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F82">
         <v>2000000099</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83">
         <v>2000000100</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F83">
         <v>2000000100</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84">
         <v>2000000101</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F84">
         <v>2000000101</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85">
         <v>2000000102</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F85">
         <v>2000000102</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86">
         <v>2000000103</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F86">
         <v>2000000103</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87">
         <v>2000000104</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F87">
         <v>2000000104</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88">
         <v>2000000105</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F88">
         <v>2000000105</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89">
         <v>2000000106</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F89">
         <v>2000000106</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90">
         <v>2000000107</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F90">
         <v>2000000107</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91">
         <v>2000000108</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F91">
         <v>2000000108</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92">
         <v>2000000109</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F92">
         <v>2000000109</v>
       </c>
       <c r="G92" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93">
         <v>2000000110</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F93">
         <v>2000000110</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94">
         <v>2000000111</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F94">
         <v>2000000111</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95">
         <v>2000000112</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F95">
         <v>2000000112</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96">
         <v>2000000113</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F96">
         <v>2000000113</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97">
         <v>2000000114</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F97">
         <v>2000000114</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98">
         <v>2000000115</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F98">
         <v>2000000115</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99">
         <v>2000000116</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F99">
         <v>2000000116</v>
       </c>
       <c r="G99" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100">
         <v>2000000117</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F100">
         <v>2000000117</v>
       </c>
       <c r="G100" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101">
         <v>2000000118</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F101">
         <v>2000000118</v>
       </c>
       <c r="G101" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102">
         <v>2000000119</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F102">
         <v>2000000119</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103">
         <v>2000000120</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F103">
         <v>2000000120</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104">
         <v>2000000121</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F104">
         <v>2000000121</v>
       </c>
       <c r="G104" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H104" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105">
         <v>2000000122</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F105">
         <v>2000000122</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106">
         <v>2000000123</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F106">
         <v>2000000123</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107">
         <v>2000000124</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F107">
         <v>2000000124</v>
       </c>
       <c r="G107" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108">
         <v>2000000125</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F108">
         <v>2000000125</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109">
         <v>2000000126</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F109">
         <v>2000000126</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110">
         <v>2000000127</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F110">
         <v>2000000127</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1">
       <c r="A111">
         <v>2000000128</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F111">
         <v>2000000128</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112">
         <v>2000000129</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F112">
         <v>2000000129</v>
       </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
       <c r="A113">
         <v>2000000130</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F113">
         <v>2000000130</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
       <c r="A114">
         <v>2000000131</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F114">
         <v>2000000131</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1">
       <c r="A115">
         <v>2000000132</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F115">
         <v>2000000132</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
       <c r="A116">
         <v>2000000133</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F116">
         <v>2000000133</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117">
         <v>2000000134</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F117">
         <v>2000000134</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
       <c r="A118">
         <v>2000000135</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F118">
         <v>2000000135</v>
       </c>
       <c r="G118" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H118" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119">
         <v>2000000136</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F119">
         <v>2000000136</v>
       </c>
       <c r="G119" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1">
       <c r="A120">
         <v>2000000137</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F120">
         <v>2000000137</v>
       </c>
       <c r="G120" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121">
         <v>2000000138</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F121">
         <v>2000000138</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
       <c r="A122">
         <v>2000000139</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F122">
         <v>2000000139</v>
       </c>
       <c r="G122" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1">
       <c r="A123">
         <v>2000000140</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F123">
         <v>2000000140</v>
       </c>
       <c r="G123" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1">
       <c r="A124">
         <v>2000000141</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F124">
         <v>2000000141</v>
       </c>
       <c r="G124" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1">
       <c r="A125">
         <v>2000000142</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F125">
         <v>2000000142</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
       <c r="A126">
         <v>2000000143</v>
       </c>
       <c r="B126" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F126">
         <v>2000000143</v>
       </c>
       <c r="G126" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H126" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1">
       <c r="A127">
         <v>2000000144</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F127">
         <v>2000000144</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1">
       <c r="A128">
         <v>2000000145</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F128">
         <v>2000000145</v>
       </c>
       <c r="G128" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H128" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1">
       <c r="A129">
         <v>2000000146</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F129">
         <v>2000000146</v>
       </c>
       <c r="G129" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H129" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1">
       <c r="A130">
         <v>2000000147</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F130">
         <v>2000000147</v>
       </c>
       <c r="G130" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1">
       <c r="A131">
         <v>2000000148</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F131">
         <v>2000000148</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1">
       <c r="A132">
         <v>2000000149</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F132">
         <v>2000000149</v>
       </c>
       <c r="G132" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H132" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1">
       <c r="A133">
         <v>2000000150</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F133">
         <v>2000000150</v>
       </c>
       <c r="G133" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1">
       <c r="A134">
         <v>2000000151</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F134">
         <v>2000000151</v>
       </c>
       <c r="G134" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H134" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1">
       <c r="A135">
         <v>2000000152</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F135">
         <v>2000000152</v>
       </c>
       <c r="G135" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1">
       <c r="A136">
         <v>2000000153</v>
       </c>
-      <c r="B136" t="s">
-        <v>163</v>
+      <c r="B136" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F136">
         <v>2000000153</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" customHeight="1">
       <c r="A137">
         <v>2000000154</v>
       </c>
       <c r="B137" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F137">
         <v>2000000154</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" customHeight="1">
       <c r="A138">
         <v>2000000155</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F138">
         <v>2000000155</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
       <c r="A139">
         <v>2000000156</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F139">
         <v>2000000156</v>
       </c>
       <c r="G139" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
       <c r="A140">
         <v>2000000157</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F140">
         <v>2000000157</v>
       </c>
       <c r="G140" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
       <c r="A141">
         <v>2000000158</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F141">
         <v>2000000158</v>
       </c>
       <c r="G141" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
       <c r="A142">
         <v>2000000159</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F142">
         <v>2000000159</v>
       </c>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="H142" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
       <c r="A143">
         <v>2000000160</v>
       </c>
       <c r="B143" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F143">
         <v>2000000160</v>
       </c>
       <c r="G143" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
       <c r="A144">
         <v>2000000161</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F144">
         <v>2000000161</v>
       </c>
       <c r="G144" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H144" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
       <c r="A145">
         <v>2000000162</v>
       </c>
-      <c r="B145" t="s">
-        <v>174</v>
+      <c r="B145" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F145">
         <v>2000000162</v>
       </c>
       <c r="G145" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H145" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1">
       <c r="A146">
         <v>2000000163</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F146">
         <v>2000000163</v>
       </c>
       <c r="G146" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" customHeight="1">
       <c r="A147">
         <v>2000000164</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F147">
         <v>2000000164</v>
       </c>
       <c r="G147" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H147" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1">
       <c r="A148">
         <v>2000000165</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F148">
         <v>2000000165</v>
       </c>
       <c r="G148" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H148" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" customHeight="1">
       <c r="A149">
         <v>2000000166</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F149">
         <v>2000000166</v>
       </c>
       <c r="G149" t="s">
-        <v>181</v>
-      </c>
-      <c r="H149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150">
+        <v>292</v>
+      </c>
+      <c r="H149" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A150" s="29">
         <v>2000000167</v>
       </c>
       <c r="B150" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150">
+        <v>97</v>
+      </c>
+      <c r="F150" s="29">
         <v>2000000167</v>
       </c>
       <c r="G150" t="s">
-        <v>25</v>
-      </c>
-      <c r="H150" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="H150" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A151" s="29">
         <v>2000000168</v>
       </c>
-      <c r="B151" t="s">
-        <v>184</v>
+      <c r="B151" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151">
+        <v>97</v>
+      </c>
+      <c r="F151" s="29">
         <v>2000000168</v>
       </c>
       <c r="G151" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="H151" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A152" s="29">
         <v>2000000169</v>
       </c>
-      <c r="B152" t="s">
-        <v>185</v>
+      <c r="B152" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152">
+        <v>97</v>
+      </c>
+      <c r="F152" s="29">
         <v>2000000169</v>
       </c>
-      <c r="G152" t="s">
-        <v>186</v>
-      </c>
-      <c r="H152" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="G152" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H152" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A153" s="29">
         <v>2000000170</v>
       </c>
-      <c r="B153" t="s">
-        <v>188</v>
+      <c r="B153" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153">
+        <v>97</v>
+      </c>
+      <c r="F153" s="29">
         <v>2000000170</v>
       </c>
-      <c r="G153" t="s">
-        <v>186</v>
-      </c>
-      <c r="H153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="G153" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H153" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A154" s="29">
         <v>2000000171</v>
       </c>
-      <c r="B154" t="s">
-        <v>189</v>
+      <c r="B154" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154">
+        <v>97</v>
+      </c>
+      <c r="F154" s="29">
         <v>2000000171</v>
       </c>
-      <c r="G154" t="s">
-        <v>186</v>
-      </c>
-      <c r="H154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="G154" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H154" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A155" s="29">
         <v>2000000172</v>
       </c>
-      <c r="B155" t="s">
-        <v>190</v>
+      <c r="B155" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155">
+        <v>97</v>
+      </c>
+      <c r="F155" s="29">
         <v>2000000172</v>
       </c>
-      <c r="G155" t="s">
-        <v>186</v>
-      </c>
-      <c r="H155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="G155" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H155" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A156" s="29">
         <v>2000000173</v>
       </c>
-      <c r="B156" t="s">
-        <v>191</v>
+      <c r="B156" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156">
+        <v>97</v>
+      </c>
+      <c r="F156" s="29">
         <v>2000000173</v>
       </c>
-      <c r="G156" t="s">
-        <v>186</v>
-      </c>
-      <c r="H156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="G156" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H156" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A157" s="29">
         <v>2000000174</v>
       </c>
-      <c r="B157" t="s">
-        <v>192</v>
+      <c r="B157" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157">
+        <v>97</v>
+      </c>
+      <c r="F157" s="29">
         <v>2000000174</v>
       </c>
-      <c r="G157" t="s">
-        <v>186</v>
-      </c>
-      <c r="H157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="G157" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="H157" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A158" s="29">
         <v>2000000175</v>
       </c>
-      <c r="B158" t="s">
-        <v>49</v>
+      <c r="B158" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158">
+        <v>97</v>
+      </c>
+      <c r="F158" s="29">
         <v>2000000175</v>
       </c>
       <c r="G158" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H158" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A159" s="29">
         <v>2000000176</v>
       </c>
-      <c r="B159" t="s">
-        <v>187</v>
+      <c r="B159" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159">
+        <v>97</v>
+      </c>
+      <c r="F159" s="29">
         <v>2000000176</v>
       </c>
       <c r="G159" t="s">
-        <v>21</v>
-      </c>
-      <c r="H159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="H159" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="13.2">
       <c r="A160">
         <v>2000000177</v>
       </c>
-      <c r="B160" t="s">
-        <v>193</v>
+      <c r="B160" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F160">
         <v>2000000177</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="H160" s="29"/>
+    </row>
+    <row r="161" spans="1:8" ht="15.75" customHeight="1">
       <c r="A161">
         <v>2000000178</v>
       </c>
-      <c r="B161" t="s">
-        <v>194</v>
+      <c r="B161" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F161">
         <v>2000000178</v>
       </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
-      <c r="H161" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G161" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H161" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" customHeight="1">
       <c r="A162">
         <v>2000000179</v>
       </c>
-      <c r="B162" t="s">
-        <v>195</v>
+      <c r="B162" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F162">
         <v>2000000179</v>
       </c>
       <c r="G162" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H162" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" customHeight="1">
       <c r="A163">
         <v>2000000180</v>
       </c>
-      <c r="B163" t="s">
-        <v>196</v>
+      <c r="B163" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F163">
         <v>2000000180</v>
       </c>
       <c r="G163" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H163" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" customHeight="1">
       <c r="A164">
         <v>2000000181</v>
       </c>
-      <c r="B164" t="s">
-        <v>197</v>
+      <c r="B164" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F164">
         <v>2000000181</v>
       </c>
       <c r="G164" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H164" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" customHeight="1">
       <c r="A165">
         <v>2000000182</v>
       </c>
-      <c r="B165" t="s">
-        <v>198</v>
+      <c r="B165" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D165" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="E165" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" customHeight="1">
       <c r="A166">
         <v>2000000183</v>
       </c>
-      <c r="B166" t="s">
-        <v>202</v>
+      <c r="B166" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D166" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="E166" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F166" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" customHeight="1">
       <c r="A167">
         <v>2000000184</v>
       </c>
-      <c r="B167" t="s">
-        <v>204</v>
+      <c r="B167" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="E167" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F167" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" customHeight="1">
       <c r="A168">
         <v>2000000185</v>
       </c>
-      <c r="B168" t="s">
-        <v>206</v>
+      <c r="B168" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="E168" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" customHeight="1">
       <c r="A169">
         <v>2000000186</v>
       </c>
-      <c r="B169" t="s">
-        <v>208</v>
+      <c r="B169" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
-      </c>
-      <c r="D169" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D169" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="E169" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" customHeight="1">
       <c r="A170">
         <v>2000000187</v>
       </c>
       <c r="B170" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" t="s">
-        <v>10</v>
+        <v>141</v>
+      </c>
+      <c r="D170" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F170">
         <v>2000000187</v>
       </c>
       <c r="G170" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H170" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.9" customHeight="1">
       <c r="A171">
         <v>2000000188</v>
       </c>
-      <c r="B171" t="s">
-        <v>211</v>
-      </c>
-      <c r="C171" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" t="s">
-        <v>212</v>
+      <c r="B171" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D171" s="36" t="s">
+        <v>319</v>
       </c>
       <c r="E171" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="F171">
         <v>2000000188</v>
       </c>
-      <c r="G171" t="s">
-        <v>213</v>
-      </c>
-      <c r="H171" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G171" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H171" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" customHeight="1">
       <c r="A172">
         <v>2000000189</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
-      </c>
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" t="s">
-        <v>199</v>
+        <v>322</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="E172" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F172" t="s">
-        <v>216</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A173">
+        <v>2000000190</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D173" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173" t="s">
+        <v>97</v>
+      </c>
+      <c r="F173">
+        <v>2000000190</v>
+      </c>
+      <c r="G173" t="s">
+        <v>148</v>
+      </c>
+      <c r="H173" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B28BC0-71BE-466F-A0EB-820ED3486D14}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1147026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1147026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1147026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1147026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1147026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>